--- a/Excel_Exercice03_FonctionsMathematiques.xlsx
+++ b/Excel_Exercice03_FonctionsMathematiques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dilio\OneDrive\Bureau\École\Programmation\Outils et gestion\Remise-C13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9186D083-BC3B-4448-B5B3-4B175CFF297D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D77DB6-3C87-4D5D-B965-78E20EE6ED29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fonctions mathématiques" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="75">
   <si>
     <t>Objectifs de cet exercice</t>
   </si>
@@ -1429,9 +1429,6 @@
     <t xml:space="preserve">         Polynominale de degré 3            y = a *x ³ + b * x² + c * x + d</t>
   </si>
   <si>
-    <t xml:space="preserve">         Exponentielle                                y = (a*b^c*x+d) + e</t>
-  </si>
-  <si>
     <t xml:space="preserve">         Polynominale de degré 2            y = a *x² + b * x + c</t>
   </si>
   <si>
@@ -1442,6 +1439,18 @@
   </si>
   <si>
     <t xml:space="preserve">         Logarithmique                              y= a * In( b * x + c ) +d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Exponentielle                                y = (a * b ^ c * x + d) + e</t>
+  </si>
+  <si>
+    <t>sinus</t>
+  </si>
+  <si>
+    <t>tangente</t>
+  </si>
+  <si>
+    <t>Valeur caché</t>
   </si>
 </sst>
 </file>
@@ -4426,7 +4435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="407">
+  <cellXfs count="408">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
@@ -5329,6 +5338,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="74" borderId="152" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="74" borderId="153" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="74" borderId="154" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="75" borderId="156" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="75" borderId="157" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="75" borderId="158" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="78" borderId="149" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="78" borderId="150" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="78" borderId="151" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="60" borderId="159" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="61" borderId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="63" borderId="161" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="68" borderId="162" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="65" borderId="163" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="70" borderId="164" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="166" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="56" borderId="167" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -5432,6 +5502,9 @@
     <xf numFmtId="0" fontId="0" fillId="62" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="62" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="57" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5519,41 +5592,29 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="77" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="77" borderId="151" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="148" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="148" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="72" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="155" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="155" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="73" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5564,24 +5625,6 @@
     <xf numFmtId="0" fontId="0" fillId="73" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="74" borderId="152" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="74" borderId="153" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="74" borderId="154" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="75" borderId="156" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="75" borderId="157" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="75" borderId="158" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="76" borderId="156" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5591,49 +5634,16 @@
     <xf numFmtId="0" fontId="0" fillId="76" borderId="158" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="77" borderId="149" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="77" borderId="151" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="78" borderId="149" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="78" borderId="150" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="78" borderId="151" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="60" borderId="159" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="61" borderId="160" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="62" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="63" borderId="161" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="68" borderId="162" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="65" borderId="163" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="70" borderId="164" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="165" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="166" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="56" borderId="167" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5642,12 +5652,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF07FF01"/>
       <color rgb="FFC5D5E9"/>
       <color rgb="FFD3FDDA"/>
       <color rgb="FFFCCCDD"/>
       <color rgb="FFA80000"/>
       <color rgb="FF010DFF"/>
-      <color rgb="FF07FF01"/>
       <color rgb="FFE5B0EE"/>
       <color rgb="FFDD97E9"/>
       <color rgb="FFADBAE5"/>
@@ -18260,6 +18270,2293 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" b="1"/>
+              <a:t>Fonctions</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" b="1" baseline="0"/>
+              <a:t> trigonométriques</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35086204003483135"/>
+          <c:y val="4.3896719294610829E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.95097675862484E-2"/>
+          <c:y val="0.22876572403804102"/>
+          <c:w val="0.94376221265005467"/>
+          <c:h val="0.73099544195650534"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fonctions trigonométriques(moi)'!$N$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cosinus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fonctions trigonométriques(moi)'!$M$16:$M$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-6.2830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.9049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.778999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6529999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5269999999999984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.400999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.2749999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.1489999999999974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.022999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.8969999999999967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.7709999999999964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.5189999999999957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3929999999999954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.266999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.1409999999999947</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.0149999999999944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8889999999999945</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.7629999999999946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.6369999999999947</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5109999999999948</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.3849999999999949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.258999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.1329999999999951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.0069999999999952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.8809999999999953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7549999999999955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6289999999999956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.5029999999999957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.3769999999999958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.2509999999999959</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.124999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.9989999999999961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.8729999999999962</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7469999999999963</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.6209999999999964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.4949999999999966</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3689999999999967</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.2429999999999968</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1169999999999969</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.99099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.86499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.73899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.61299999999999688</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.48699999999999688</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.36099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7000000000003124E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14300000000000312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.39500000000000313</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.52100000000000313</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64700000000000313</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77300000000000313</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.025000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1510000000000029</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2770000000000028</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4030000000000027</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5290000000000026</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6550000000000025</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7810000000000024</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9070000000000022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0330000000000021</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.159000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2850000000000019</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4110000000000018</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5370000000000017</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.6630000000000016</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.7890000000000015</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9150000000000014</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0410000000000013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1670000000000011</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.293000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.4190000000000009</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5450000000000008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.6710000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.7970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.9230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.1750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.301000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4270000000000014</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5530000000000017</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.8050000000000024</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.9310000000000027</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.057000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1830000000000034</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.3090000000000037</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.4350000000000041</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.5610000000000044</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6870000000000047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.8130000000000051</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.9390000000000054</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.0650000000000057</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.1910000000000061</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.3170000000000064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fonctions trigonométriques(moi)'!$N$16:$N$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.9999998626449984</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9366464006597808</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7509576050443236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4546631858558041</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0664796607878269</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61092805806360073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11678495625011225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.3847352932868755</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.86195233473820387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.2847210130770723</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.6263356027278775</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.8652167721287753</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.9862747209183347</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.9818623822139703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.8522584774835269</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.6056499100871529</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2576146096656089</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.83013749539550097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.35022171838159949</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.15181709087410353</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64426581984642162</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0960171484101677</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4785345561768382</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7676549358891831</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9451149442237328</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.9997046724856242</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9279757613783808</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.734459229196436</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4313792535281096</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0378809864917218</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.57882118137192895</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.3198025135866147E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.4176806378147449</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.89217497982759986</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.3103118351167158</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.6456780641035582</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.8770890357179211</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.9899268318883914</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.97706364165479</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.8393120153454783</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.5853735368721693</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.2312891564439479</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.79942590543948244</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.31706400128838325</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.18532640696472361</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67600999676155527</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1239909494311202</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5009709141303569</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7831365763906635</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.9526639129830954</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.9988441113570419</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9187600308443546</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.7174704744896434</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.4076906313044633</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0089888749759628</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.54655065616916398</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9587571674182825E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.45050789265152419</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.92214538275343649</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.3355321963166202</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.6645552474734828</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.888430595117583</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.993016336351058</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.9717059313624044</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.8258455296103953</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-1.5646489353835642</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.204615584245851</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.76848829600909074</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.28381664156733977</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.2187833262330737</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70756304724071273</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.151646967600835</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5229829067302567</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.7981140756215379</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.9596608104770303</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.9974184225633183</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.909001814595692</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6999961441075493</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3836040166034722</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.9798114948272868</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.51412560621159842</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5963098455566684E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.48320777663828612</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.9518550700666224</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.3603749661938487</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.6829618157438304</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.8992382437600548</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.9955423608192862</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.9657907661074201</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.8118628276205282</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.543481965030572</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.1776014344165799</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.73733341400903485</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.25048903915248522</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.25217838949694971</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.73891605037724739</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.1789773838098276</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.5445643105867863</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.8125831990348991</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.966103658492073</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.9954280091854995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0049-4BB1-9F00-7BA25BCCE788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fonctions trigonométriques(moi)'!$O$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sinus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="07FF01"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fonctions trigonométriques(moi)'!$M$16:$M$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-6.2830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.9049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.778999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6529999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5269999999999984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.400999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.2749999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.1489999999999974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.022999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.8969999999999967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.7709999999999964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.5189999999999957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3929999999999954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.266999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.1409999999999947</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.0149999999999944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8889999999999945</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.7629999999999946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.6369999999999947</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5109999999999948</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.3849999999999949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.258999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.1329999999999951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.0069999999999952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.8809999999999953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7549999999999955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6289999999999956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.5029999999999957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.3769999999999958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.2509999999999959</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.124999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.9989999999999961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.8729999999999962</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7469999999999963</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.6209999999999964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.4949999999999966</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3689999999999967</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.2429999999999968</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1169999999999969</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.99099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.86499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.73899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.61299999999999688</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.48699999999999688</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.36099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7000000000003124E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14300000000000312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.39500000000000313</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.52100000000000313</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64700000000000313</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77300000000000313</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.025000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1510000000000029</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2770000000000028</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4030000000000027</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5290000000000026</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6550000000000025</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7810000000000024</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9070000000000022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0330000000000021</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.159000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2850000000000019</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4110000000000018</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5370000000000017</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.6630000000000016</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.7890000000000015</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9150000000000014</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0410000000000013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1670000000000011</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.293000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.4190000000000009</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5450000000000008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.6710000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.7970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.9230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.1750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.301000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4270000000000014</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5530000000000017</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.8050000000000024</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.9310000000000027</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.057000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1830000000000034</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.3090000000000037</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.4350000000000041</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.5610000000000044</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6870000000000047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.8130000000000051</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.9390000000000054</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.0650000000000057</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.1910000000000061</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.3170000000000064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fonctions trigonométriques(moi)'!$O$16:$O$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>3.7061435705115694E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25170140909462396</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49904147618777767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.73846923710077184</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96618856296903721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1785889622495196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3723028250899609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5442588168072331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6917305739207422</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8123799306649455</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9042939906243146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9660154557197091</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.99656573167986</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9954604436605528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9627171160112522</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8988548944264154</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.8048863148867877</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6823012498941743</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.533043286532249</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.359478910879421</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.1643599873551043</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95078012788963584</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.72212564268495683</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48202185024209948</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23427559791038235</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7185095704586758E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.26837331950404325</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.51530648240009946</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.75406945732597497</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.98087665560368908</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.1921320474796704</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.3844861772022623</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.5548892686666613</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7006395796369083</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.8194262378883943</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.909365880103538</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.9690325126106782</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.9974801205239545</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.9942576668160987</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.9594162435137354</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.8935082616329324</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.7975786926985833</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.6731485007133953</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.5221905272627285</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-1.3470982120971271</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-1.1506476451279275</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.93595355150182513</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.70641990761136042</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.46568597102482751</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.21756858003145702</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.3998362357003702E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.28502626046672513</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.531535065174779</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.76961637761649582</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99549541687746468</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2055908691719741</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.3965716695987418</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5654098161987884</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7094283789481899</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8263439425027861</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.9143028097648196</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.9719103922637009</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9982533213662022</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9929139297426781</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.9559768734855725</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.8880277898864637</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.790144012152612</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.6638774882812408</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5112301749129216</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.3346222962946956</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.1368539716072981</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.92106081905548731</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.69066424061894449</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.44931717569937385</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.20084618374011914</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-5.0809225901225066E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.30165905490190098</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.54772607742598001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.78510889906848458</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.0100438134916292</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-1.2189644760157703</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.408558448039851</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1.5758197157791516</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1.7180963506353835</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1.8331325555436107</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1.919104430650878</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-1.9746488912614453</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1.9988852795544036</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1.9914293274197354</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1.9523992490319515</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1.8824138665635068</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.7825827987548235</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.6544888679012122</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.5001630041940393</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-1.322052045307994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1.1229799417722262</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.90610298321447569</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.67485975536641218</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.43291662126222519</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.18410959102645097</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.7616498094034305E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0049-4BB1-9F00-7BA25BCCE788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fonctions trigonométriques(moi)'!$P$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tangente</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Fonctions trigonométriques(moi)'!$M$16:$M$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>-6.2830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0309999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-5.9049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.778999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.6529999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.5269999999999984</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-5.400999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.2749999999999977</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.1489999999999974</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5.022999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.8969999999999967</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.7709999999999964</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-4.644999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.5189999999999957</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-4.3929999999999954</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.266999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.1409999999999947</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.0149999999999944</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.8889999999999945</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.7629999999999946</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.6369999999999947</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-3.5109999999999948</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.3849999999999949</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.258999999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-3.1329999999999951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.0069999999999952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.8809999999999953</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.7549999999999955</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.6289999999999956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.5029999999999957</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.3769999999999958</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.2509999999999959</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.124999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.9989999999999961</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.8729999999999962</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.7469999999999963</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.6209999999999964</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.4949999999999966</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.3689999999999967</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.2429999999999968</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.1169999999999969</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.99099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.86499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.73899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.61299999999999688</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.48699999999999688</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.36099999999999688</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23499999999999688</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10899999999999688</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7000000000003124E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14300000000000312</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.26900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.39500000000000313</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.52100000000000313</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.64700000000000313</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77300000000000313</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.89900000000000313</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.025000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.1510000000000029</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.2770000000000028</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.4030000000000027</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5290000000000026</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.6550000000000025</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7810000000000024</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.9070000000000022</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.0330000000000021</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.159000000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.2850000000000019</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.4110000000000018</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.5370000000000017</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.6630000000000016</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.7890000000000015</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.9150000000000014</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0410000000000013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.1670000000000011</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.293000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.4190000000000009</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.5450000000000008</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.6710000000000007</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.7970000000000006</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.9230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.0490000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.1750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.301000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.4270000000000014</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5530000000000017</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.679000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.8050000000000024</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.9310000000000027</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.057000000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1830000000000034</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.3090000000000037</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.4350000000000041</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.5610000000000044</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.6870000000000047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.8130000000000051</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.9390000000000054</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.0650000000000057</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.1910000000000061</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.3170000000000064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Fonctions trigonométriques(moi)'!$P$16:$P$116</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1.8530718170718704E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12685933874040059</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25767101267078973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39731005147085796</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55174937272282631</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72939858560826298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94321692959671877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2150614368902624</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5858093426187767</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1429473993321628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1152516648024537</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.3551174609773442</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.042096526443199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-14.816751605132295</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.106301155025827</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.0237842894140581</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.0947642028376494</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.5553794504950544</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.193552774307163</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.9267653727245575</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.71603576798111146</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.54035405793876157</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.38718150715586014</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.24833113019580119</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.1179498042086834</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5928650718340941E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.13541130963318615</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.26665623604500688</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.40707739810346705</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.5627675154822025</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.74235860794953468</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95923131106856674</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2360965520547245</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.6157594239734745</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.1908269093209292</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.2076733614779225</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6163940982019902</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.902123863539483</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-13.167976346854354</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-4.8880428238793456</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-2.9406185723143499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-2.0502480520082926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.5270034016933942</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-1.1733706337693091</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.91125747300289139</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.70339372111986542</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.52954078276503691</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.37754496102267854</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.23942370370944582</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.10943373774527267</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.7001637856006207E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14398277515784177</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.27568183832459875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41691183224909656</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.57389041844288291</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.75548142405864793</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.97550609757446871</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.2575734751398955</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6465344294765589</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.2405033486537196</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.3052182004054793</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.903568646087118</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>23.911613719025262</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-11.847885307064628</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-4.6870156339738278</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.8614659143282859</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-2.0072405939160722</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-1.499346720636185</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-1.1535828036201592</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.89598539218629791</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.69090032061945306</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.51882336520009686</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.36796939846559823</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.2305520658652129</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.10093332761480862</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5412814917901309E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.15257501806538845</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.28474937701885827</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.4268154523167666</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.58512117803174768</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.7687720113361487</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99205005061325846</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2795094068958039</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.6781734518083602</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.2920872422041083</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.4083392987317778</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.2207395900259765</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29.938870635093895</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-10.766963094173494</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-4.5012312539459511</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-2.7860322782578582</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1.9656606301622808</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.4723786298540331</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1.1341751228437211</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.88094168135166395</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.67855122459655814</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.50819904096448887</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.35845290137796304</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.22171475463619375</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-9.2447332172630389E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.3827587001537422E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0049-4BB1-9F00-7BA25BCCE788}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1509336863"/>
+        <c:axId val="1509348927"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1509336863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="cross"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509348927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1509348927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="-5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1509336863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24710079740044927"/>
+          <c:y val="0.11630689555362075"/>
+          <c:w val="0.48422447646691091"/>
+          <c:h val="9.8059659280943678E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -18300,7 +20597,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18862,15 +21715,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>394609</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>680357</xdr:colOff>
+      <xdr:colOff>784741</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
+      <xdr:rowOff>63003</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18925,6 +21778,47 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5958</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>785090</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C3C965-9EB7-C374-63AD-7AD6FBCBB9CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -19298,52 +22192,52 @@
   <sheetData>
     <row r="1" spans="2:28" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="313" t="s">
+      <c r="B2" s="338" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
-      <c r="K2" s="313"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
-      <c r="N2" s="313"/>
-      <c r="O2" s="313"/>
-      <c r="P2" s="313"/>
-      <c r="Q2" s="313"/>
-      <c r="R2" s="313"/>
-      <c r="S2" s="313"/>
-      <c r="T2" s="313"/>
-      <c r="U2" s="313"/>
-      <c r="V2" s="313"/>
-      <c r="W2" s="313"/>
-      <c r="X2" s="313"/>
-      <c r="Y2" s="313"/>
-      <c r="Z2" s="313"/>
-      <c r="AA2" s="313"/>
-      <c r="AB2" s="313"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="338"/>
+      <c r="G2" s="338"/>
+      <c r="H2" s="338"/>
+      <c r="I2" s="338"/>
+      <c r="J2" s="338"/>
+      <c r="K2" s="338"/>
+      <c r="L2" s="338"/>
+      <c r="M2" s="338"/>
+      <c r="N2" s="338"/>
+      <c r="O2" s="338"/>
+      <c r="P2" s="338"/>
+      <c r="Q2" s="338"/>
+      <c r="R2" s="338"/>
+      <c r="S2" s="338"/>
+      <c r="T2" s="338"/>
+      <c r="U2" s="338"/>
+      <c r="V2" s="338"/>
+      <c r="W2" s="338"/>
+      <c r="X2" s="338"/>
+      <c r="Y2" s="338"/>
+      <c r="Z2" s="338"/>
+      <c r="AA2" s="338"/>
+      <c r="AB2" s="338"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:28" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="25"/>
       <c r="D4" s="23"/>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="339" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="314"/>
-      <c r="G4" s="316" t="s">
+      <c r="F4" s="339"/>
+      <c r="G4" s="341" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="317"/>
-      <c r="I4" s="317"/>
-      <c r="J4" s="317"/>
-      <c r="K4" s="317"/>
-      <c r="L4" s="317"/>
+      <c r="H4" s="342"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
+      <c r="K4" s="342"/>
+      <c r="L4" s="342"/>
       <c r="M4" s="18"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -19351,8 +22245,8 @@
     <row r="5" spans="2:28" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="26"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
+      <c r="E5" s="340"/>
+      <c r="F5" s="340"/>
       <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
@@ -19390,10 +22284,10 @@
     </row>
     <row r="7" spans="2:28" s="9" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="76"/>
-      <c r="D7" s="325" t="s">
+      <c r="D7" s="350" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="325"/>
+      <c r="E7" s="350"/>
       <c r="F7" s="165" t="s">
         <v>41</v>
       </c>
@@ -19411,10 +22305,10 @@
       </c>
       <c r="K7" s="148"/>
       <c r="L7" s="149"/>
-      <c r="M7" s="323"/>
-      <c r="N7" s="323"/>
-      <c r="O7" s="323"/>
-      <c r="P7" s="323"/>
+      <c r="M7" s="348"/>
+      <c r="N7" s="348"/>
+      <c r="O7" s="348"/>
+      <c r="P7" s="348"/>
       <c r="Q7" s="77"/>
       <c r="R7" s="78"/>
     </row>
@@ -19435,10 +22329,10 @@
     </row>
     <row r="9" spans="2:28" s="9" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="87"/>
-      <c r="D9" s="326" t="s">
+      <c r="D9" s="351" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="326"/>
+      <c r="E9" s="351"/>
       <c r="F9" s="167" t="s">
         <v>42</v>
       </c>
@@ -19452,10 +22346,10 @@
       <c r="J9" s="152"/>
       <c r="K9" s="152"/>
       <c r="L9" s="152"/>
-      <c r="M9" s="324"/>
-      <c r="N9" s="324"/>
-      <c r="O9" s="324"/>
-      <c r="P9" s="324"/>
+      <c r="M9" s="349"/>
+      <c r="N9" s="349"/>
+      <c r="O9" s="349"/>
+      <c r="P9" s="349"/>
       <c r="Q9" s="88"/>
       <c r="R9" s="79"/>
       <c r="S9" s="89"/>
@@ -19496,10 +22390,10 @@
     </row>
     <row r="11" spans="2:28" s="9" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C11" s="98"/>
-      <c r="D11" s="327" t="s">
+      <c r="D11" s="352" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="327"/>
+      <c r="E11" s="352"/>
       <c r="F11" s="168" t="s">
         <v>43</v>
       </c>
@@ -19515,10 +22409,10 @@
       <c r="J11" s="155"/>
       <c r="K11" s="155"/>
       <c r="L11" s="155"/>
-      <c r="M11" s="330"/>
-      <c r="N11" s="330"/>
-      <c r="O11" s="330"/>
-      <c r="P11" s="330"/>
+      <c r="M11" s="355"/>
+      <c r="N11" s="355"/>
+      <c r="O11" s="355"/>
+      <c r="P11" s="355"/>
       <c r="Q11" s="99"/>
       <c r="R11" s="80"/>
       <c r="S11" s="100"/>
@@ -19559,10 +22453,10 @@
     </row>
     <row r="13" spans="2:28" s="9" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="110"/>
-      <c r="D13" s="328" t="s">
+      <c r="D13" s="353" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="328"/>
+      <c r="E13" s="353"/>
       <c r="F13" s="169" t="s">
         <v>44</v>
       </c>
@@ -19580,10 +22474,10 @@
       </c>
       <c r="K13" s="158"/>
       <c r="L13" s="158"/>
-      <c r="M13" s="329"/>
-      <c r="N13" s="329"/>
-      <c r="O13" s="329"/>
-      <c r="P13" s="329"/>
+      <c r="M13" s="354"/>
+      <c r="N13" s="354"/>
+      <c r="O13" s="354"/>
+      <c r="P13" s="354"/>
       <c r="Q13" s="111"/>
       <c r="R13" s="82"/>
       <c r="S13" s="112"/>
@@ -19624,10 +22518,10 @@
     </row>
     <row r="15" spans="2:28" s="9" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="121"/>
-      <c r="D15" s="332" t="s">
+      <c r="D15" s="357" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="332"/>
+      <c r="E15" s="357"/>
       <c r="F15" s="170" t="s">
         <v>45</v>
       </c>
@@ -19647,10 +22541,10 @@
         <v>-20</v>
       </c>
       <c r="L15" s="161"/>
-      <c r="M15" s="331"/>
-      <c r="N15" s="331"/>
-      <c r="O15" s="331"/>
-      <c r="P15" s="331"/>
+      <c r="M15" s="356"/>
+      <c r="N15" s="356"/>
+      <c r="O15" s="356"/>
+      <c r="P15" s="356"/>
       <c r="Q15" s="123"/>
       <c r="R15" s="83"/>
       <c r="S15" s="124"/>
@@ -19691,10 +22585,10 @@
     </row>
     <row r="17" spans="2:28" s="9" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C17" s="131"/>
-      <c r="D17" s="334" t="s">
+      <c r="D17" s="359" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="334"/>
+      <c r="E17" s="359"/>
       <c r="F17" s="171" t="s">
         <v>46</v>
       </c>
@@ -19712,10 +22606,10 @@
       </c>
       <c r="K17" s="164"/>
       <c r="L17" s="164"/>
-      <c r="M17" s="333"/>
-      <c r="N17" s="333"/>
-      <c r="O17" s="333"/>
-      <c r="P17" s="333"/>
+      <c r="M17" s="358"/>
+      <c r="N17" s="358"/>
+      <c r="O17" s="358"/>
+      <c r="P17" s="358"/>
       <c r="Q17" s="133"/>
       <c r="R17" s="79"/>
       <c r="S17" s="132"/>
@@ -19749,22 +22643,22 @@
       <c r="B20" s="23"/>
       <c r="C20" s="23"/>
       <c r="D20" s="23"/>
-      <c r="E20" s="314" t="s">
+      <c r="E20" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="318"/>
-      <c r="G20" s="321" t="s">
+      <c r="F20" s="343"/>
+      <c r="G20" s="346" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="310"/>
-      <c r="I20" s="310" t="s">
+      <c r="H20" s="335"/>
+      <c r="I20" s="335" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="310"/>
-      <c r="K20" s="310" t="s">
+      <c r="J20" s="335"/>
+      <c r="K20" s="335" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="311"/>
+      <c r="L20" s="336"/>
       <c r="M20" s="35"/>
       <c r="N20" s="36"/>
       <c r="O20" s="36"/>
@@ -19780,21 +22674,21 @@
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
-      <c r="E21" s="319"/>
-      <c r="F21" s="320"/>
-      <c r="G21" s="322">
+      <c r="E21" s="344"/>
+      <c r="F21" s="345"/>
+      <c r="G21" s="347">
         <v>-30</v>
       </c>
-      <c r="H21" s="322"/>
-      <c r="I21" s="322">
+      <c r="H21" s="347"/>
+      <c r="I21" s="347">
         <v>0.2</v>
       </c>
-      <c r="J21" s="322"/>
-      <c r="K21" s="312">
+      <c r="J21" s="347"/>
+      <c r="K21" s="337">
         <f>G21+100*I21</f>
         <v>-10</v>
       </c>
-      <c r="L21" s="312"/>
+      <c r="L21" s="337"/>
       <c r="M21" s="38"/>
       <c r="N21" s="39"/>
       <c r="O21" s="39"/>
@@ -24196,7 +27090,7 @@
   <dimension ref="B2:AB123"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="218" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24216,53 +27110,53 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="352" t="s">
+      <c r="B2" s="378" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="353"/>
-      <c r="F2" s="353"/>
-      <c r="G2" s="353"/>
-      <c r="H2" s="353"/>
-      <c r="I2" s="353"/>
-      <c r="J2" s="353"/>
-      <c r="K2" s="353"/>
-      <c r="L2" s="353"/>
-      <c r="M2" s="353"/>
-      <c r="N2" s="353"/>
-      <c r="O2" s="353"/>
-      <c r="P2" s="353"/>
-      <c r="Q2" s="353"/>
-      <c r="R2" s="353"/>
-      <c r="S2" s="353"/>
-      <c r="T2" s="353"/>
-      <c r="U2" s="353"/>
-      <c r="V2" s="353"/>
-      <c r="W2" s="353"/>
-      <c r="X2" s="353"/>
-      <c r="Y2" s="353"/>
-      <c r="Z2" s="353"/>
-      <c r="AA2" s="353"/>
-      <c r="AB2" s="353"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="379"/>
+      <c r="K2" s="379"/>
+      <c r="L2" s="379"/>
+      <c r="M2" s="379"/>
+      <c r="N2" s="379"/>
+      <c r="O2" s="379"/>
+      <c r="P2" s="379"/>
+      <c r="Q2" s="379"/>
+      <c r="R2" s="379"/>
+      <c r="S2" s="379"/>
+      <c r="T2" s="379"/>
+      <c r="U2" s="379"/>
+      <c r="V2" s="379"/>
+      <c r="W2" s="379"/>
+      <c r="X2" s="379"/>
+      <c r="Y2" s="379"/>
+      <c r="Z2" s="379"/>
+      <c r="AA2" s="379"/>
+      <c r="AB2" s="379"/>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="E4" s="354" t="s">
+      <c r="E4" s="380" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="354"/>
-      <c r="G4" s="356" t="s">
+      <c r="F4" s="380"/>
+      <c r="G4" s="382" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="357"/>
-      <c r="I4" s="357"/>
-      <c r="J4" s="357"/>
-      <c r="K4" s="357"/>
-      <c r="L4" s="357"/>
+      <c r="H4" s="383"/>
+      <c r="I4" s="383"/>
+      <c r="J4" s="383"/>
+      <c r="K4" s="383"/>
+      <c r="L4" s="383"/>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="E5" s="355"/>
-      <c r="F5" s="355"/>
+      <c r="E5" s="381"/>
+      <c r="F5" s="381"/>
       <c r="G5" s="183" t="s">
         <v>16</v>
       </c>
@@ -24297,11 +27191,11 @@
       <c r="P6" s="194"/>
     </row>
     <row r="7" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E7" s="358" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" s="358"/>
-      <c r="G7" s="394">
+      <c r="E7" s="384" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="384"/>
+      <c r="G7" s="324">
         <v>-1</v>
       </c>
       <c r="H7" s="199">
@@ -24316,8 +27210,8 @@
       <c r="K7" s="200"/>
       <c r="L7" s="195"/>
       <c r="M7" s="208"/>
-      <c r="N7" s="360"/>
-      <c r="O7" s="360"/>
+      <c r="N7" s="386"/>
+      <c r="O7" s="386"/>
       <c r="P7" s="209"/>
       <c r="V7" s="309"/>
     </row>
@@ -24338,11 +27232,11 @@
       <c r="R8" s="203"/>
     </row>
     <row r="9" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E9" s="359" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="359"/>
-      <c r="G9" s="395">
+      <c r="E9" s="385" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="385"/>
+      <c r="G9" s="325">
         <v>-4</v>
       </c>
       <c r="H9" s="224">
@@ -24374,11 +27268,11 @@
       <c r="R10" s="231"/>
     </row>
     <row r="11" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="335" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="396"/>
-      <c r="G11" s="397">
+      <c r="E11" s="360" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="361"/>
+      <c r="G11" s="326">
         <v>0.5</v>
       </c>
       <c r="H11" s="232">
@@ -24416,11 +27310,11 @@
       <c r="T12" s="240"/>
     </row>
     <row r="13" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="348" t="s">
+      <c r="E13" s="374" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="349"/>
-      <c r="G13" s="399">
+      <c r="F13" s="375"/>
+      <c r="G13" s="328">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="H13" s="241">
@@ -24464,11 +27358,11 @@
       <c r="V14" s="247"/>
     </row>
     <row r="15" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="350" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="351"/>
-      <c r="G15" s="398">
+      <c r="E15" s="376" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="377"/>
+      <c r="G15" s="327">
         <v>1</v>
       </c>
       <c r="H15" s="253">
@@ -24522,11 +27416,11 @@
       <c r="Z16" s="192"/>
     </row>
     <row r="17" spans="5:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="347" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="347"/>
-      <c r="G17" s="400">
+      <c r="E17" s="373" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="373"/>
+      <c r="G17" s="329">
         <v>-10</v>
       </c>
       <c r="H17" s="265">
@@ -24572,22 +27466,22 @@
       <c r="Z18" s="275"/>
     </row>
     <row r="19" spans="5:26" x14ac:dyDescent="0.3">
-      <c r="E19" s="336" t="s">
+      <c r="E19" s="362" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="337"/>
-      <c r="G19" s="340" t="s">
+      <c r="F19" s="363"/>
+      <c r="G19" s="366" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="341"/>
-      <c r="I19" s="340" t="s">
+      <c r="H19" s="367"/>
+      <c r="I19" s="366" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="341"/>
-      <c r="K19" s="340" t="s">
+      <c r="J19" s="367"/>
+      <c r="K19" s="366" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="342"/>
+      <c r="L19" s="368"/>
       <c r="M19" s="307"/>
       <c r="N19" s="283"/>
       <c r="O19" s="196"/>
@@ -24602,20 +27496,20 @@
       <c r="Z19" s="275"/>
     </row>
     <row r="20" spans="5:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="338"/>
-      <c r="F20" s="339"/>
-      <c r="G20" s="343">
+      <c r="E20" s="364"/>
+      <c r="F20" s="365"/>
+      <c r="G20" s="369">
         <v>-10</v>
       </c>
-      <c r="H20" s="343"/>
-      <c r="I20" s="343">
+      <c r="H20" s="369"/>
+      <c r="I20" s="369">
         <v>0.2</v>
       </c>
-      <c r="J20" s="344"/>
-      <c r="K20" s="345">
+      <c r="J20" s="370"/>
+      <c r="K20" s="371">
         <v>10</v>
       </c>
-      <c r="L20" s="346"/>
+      <c r="L20" s="372"/>
       <c r="M20" s="308"/>
       <c r="N20" s="282"/>
       <c r="O20" s="196"/>
@@ -24708,7 +27602,7 @@
       </c>
       <c r="O23" s="286"/>
       <c r="P23" s="287">
-        <f t="shared" ref="P22:P53" si="2">$G$7*ABS($H$7*N23+$I$7)+$J$7</f>
+        <f t="shared" ref="P23:P53" si="2">$G$7*ABS($H$7*N23+$I$7)+$J$7</f>
         <v>-24</v>
       </c>
       <c r="Q23" s="288"/>
@@ -24743,12 +27637,12 @@
         <v>3</v>
       </c>
       <c r="N24" s="285">
-        <f t="shared" ref="N23:N54" si="7">N23+$I$20</f>
+        <f t="shared" ref="N24:N54" si="7">N23+$I$20</f>
         <v>-9.6000000000000014</v>
       </c>
       <c r="O24" s="286"/>
       <c r="P24" s="287">
-        <f t="shared" si="2"/>
+        <f>$G$7*ABS($H$7*N24+$I$7)+$J$7</f>
         <v>-23</v>
       </c>
       <c r="Q24" s="288"/>
@@ -28855,17 +31749,17 @@
   <sheetData>
     <row r="1" spans="2:20" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="313" t="s">
+      <c r="B2" s="338" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="313"/>
-      <c r="D2" s="313"/>
-      <c r="E2" s="313"/>
-      <c r="F2" s="313"/>
-      <c r="G2" s="313"/>
-      <c r="H2" s="313"/>
-      <c r="I2" s="313"/>
-      <c r="J2" s="313"/>
+      <c r="C2" s="338"/>
+      <c r="D2" s="338"/>
+      <c r="E2" s="338"/>
+      <c r="F2" s="338"/>
+      <c r="G2" s="338"/>
+      <c r="H2" s="338"/>
+      <c r="I2" s="338"/>
+      <c r="J2" s="338"/>
       <c r="K2" s="59"/>
       <c r="L2" s="59"/>
       <c r="M2" s="59"/>
@@ -28881,16 +31775,16 @@
     <row r="4" spans="2:20" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="25"/>
       <c r="D4" s="23"/>
-      <c r="E4" s="314" t="s">
+      <c r="E4" s="339" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="314"/>
-      <c r="G4" s="316" t="s">
+      <c r="F4" s="339"/>
+      <c r="G4" s="341" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="317"/>
-      <c r="I4" s="317"/>
-      <c r="J4" s="317"/>
+      <c r="H4" s="342"/>
+      <c r="I4" s="342"/>
+      <c r="J4" s="342"/>
       <c r="K4" s="45"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
@@ -28905,8 +31799,8 @@
     <row r="5" spans="2:20" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C5" s="26"/>
       <c r="D5" s="24"/>
-      <c r="E5" s="315"/>
-      <c r="F5" s="315"/>
+      <c r="E5" s="340"/>
+      <c r="F5" s="340"/>
       <c r="G5" s="14" t="s">
         <v>16</v>
       </c>
@@ -28950,10 +31844,10 @@
     </row>
     <row r="7" spans="2:20" s="9" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="20"/>
-      <c r="D7" s="361" t="s">
+      <c r="D7" s="387" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="361"/>
+      <c r="E7" s="387"/>
       <c r="F7" s="179" t="s">
         <v>52</v>
       </c>
@@ -29001,10 +31895,10 @@
     </row>
     <row r="9" spans="2:20" s="9" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C9" s="21"/>
-      <c r="D9" s="362" t="s">
+      <c r="D9" s="388" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="362"/>
+      <c r="E9" s="388"/>
       <c r="F9" s="181" t="s">
         <v>52</v>
       </c>
@@ -29052,10 +31946,10 @@
     </row>
     <row r="11" spans="2:20" s="9" customFormat="1" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="22"/>
-      <c r="D11" s="363" t="s">
+      <c r="D11" s="389" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="363"/>
+      <c r="E11" s="389"/>
       <c r="F11" s="182" t="s">
         <v>53</v>
       </c>
@@ -29115,10 +32009,10 @@
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
-      <c r="E14" s="314" t="s">
+      <c r="E14" s="339" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="318"/>
+      <c r="F14" s="343"/>
       <c r="G14" s="60" t="s">
         <v>24</v>
       </c>
@@ -29144,8 +32038,8 @@
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
-      <c r="E15" s="319"/>
-      <c r="F15" s="320"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="345"/>
       <c r="G15" s="178">
         <f>-2*PI()</f>
         <v>-6.2831853071795862</v>
@@ -31933,10 +34827,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21E82B6-7D64-4AAA-8030-80D4565C80E1}">
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:P116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="61" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31947,185 +34841,2464 @@
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="1.33203125" customWidth="1"/>
+    <col min="13" max="13" width="2.5546875" customWidth="1"/>
+    <col min="14" max="14" width="2.109375" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16" width="1.21875" customWidth="1"/>
+    <col min="17" max="18" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="4.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="367" t="s">
+    <row r="1" spans="2:16" ht="4.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="16.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="394" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="368"/>
-      <c r="D2" s="368"/>
-      <c r="E2" s="368"/>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E3" s="366"/>
-      <c r="F3" s="366"/>
-    </row>
-    <row r="4" spans="2:10" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="370" t="s">
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="395"/>
+      <c r="F2" s="395"/>
+      <c r="G2" s="395"/>
+      <c r="H2" s="395"/>
+      <c r="I2" s="395"/>
+      <c r="J2" s="395"/>
+    </row>
+    <row r="4" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="396" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="371"/>
-      <c r="D4" s="371"/>
-      <c r="E4" s="371"/>
-      <c r="F4" s="371"/>
-      <c r="G4" s="356" t="s">
+      <c r="C4" s="397"/>
+      <c r="D4" s="397"/>
+      <c r="E4" s="397"/>
+      <c r="F4" s="397"/>
+      <c r="G4" s="382" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="356"/>
-      <c r="I4" s="356"/>
-      <c r="J4" s="356"/>
-    </row>
-    <row r="5" spans="2:10" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="371"/>
-      <c r="C5" s="371"/>
-      <c r="D5" s="371"/>
-      <c r="E5" s="371"/>
-      <c r="F5" s="371"/>
-      <c r="G5" s="372" t="s">
+      <c r="H4" s="382"/>
+      <c r="I4" s="382"/>
+      <c r="J4" s="382"/>
+    </row>
+    <row r="5" spans="2:16" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="397"/>
+      <c r="C5" s="397"/>
+      <c r="D5" s="397"/>
+      <c r="E5" s="397"/>
+      <c r="F5" s="397"/>
+      <c r="G5" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="372" t="s">
+      <c r="H5" s="311" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="372" t="s">
+      <c r="I5" s="311" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="372" t="s">
+      <c r="J5" s="311" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="376" t="s">
+    <row r="6" spans="2:16" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="398" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="377"/>
-      <c r="D7" s="377"/>
-      <c r="E7" s="377"/>
-      <c r="F7" s="378"/>
-      <c r="G7" s="379">
+      <c r="C7" s="399"/>
+      <c r="D7" s="399"/>
+      <c r="E7" s="399"/>
+      <c r="F7" s="400"/>
+      <c r="G7" s="315">
         <v>2</v>
       </c>
-      <c r="H7" s="380">
+      <c r="H7" s="316">
         <v>2</v>
       </c>
-      <c r="I7" s="380">
+      <c r="I7" s="316">
         <v>0</v>
       </c>
-      <c r="J7" s="381">
+      <c r="J7" s="317">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="369"/>
-      <c r="C8" s="369"/>
-      <c r="D8" s="369"/>
-      <c r="E8" s="369"/>
-      <c r="F8" s="369"/>
-      <c r="G8" s="373"/>
-      <c r="H8" s="373"/>
-      <c r="I8" s="373"/>
-      <c r="J8" s="373"/>
-    </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="385" t="s">
+      <c r="L7" s="406"/>
+      <c r="M7" s="406"/>
+      <c r="N7" s="406"/>
+      <c r="O7" s="406"/>
+      <c r="P7" s="406"/>
+    </row>
+    <row r="8" spans="2:16" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="310"/>
+      <c r="C8" s="310"/>
+      <c r="D8" s="310"/>
+      <c r="E8" s="310"/>
+      <c r="F8" s="310"/>
+      <c r="G8" s="312"/>
+      <c r="H8" s="312"/>
+      <c r="I8" s="312"/>
+      <c r="J8" s="312"/>
+      <c r="L8" s="406"/>
+      <c r="M8" s="406"/>
+      <c r="N8" s="406"/>
+      <c r="O8" s="406"/>
+      <c r="P8" s="406"/>
+    </row>
+    <row r="9" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="401" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="386"/>
-      <c r="D9" s="386"/>
-      <c r="E9" s="386"/>
-      <c r="F9" s="387"/>
-      <c r="G9" s="382">
+      <c r="C9" s="402"/>
+      <c r="D9" s="402"/>
+      <c r="E9" s="402"/>
+      <c r="F9" s="403"/>
+      <c r="G9" s="318">
         <v>2</v>
       </c>
-      <c r="H9" s="383">
+      <c r="H9" s="319">
         <v>1</v>
       </c>
-      <c r="I9" s="383">
+      <c r="I9" s="319">
         <v>0</v>
       </c>
-      <c r="J9" s="384">
+      <c r="J9" s="320">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="369"/>
-      <c r="C10" s="369"/>
-      <c r="D10" s="369"/>
-      <c r="E10" s="375"/>
-      <c r="F10" s="375"/>
-      <c r="G10" s="374"/>
-      <c r="H10" s="374"/>
-      <c r="I10" s="374"/>
-      <c r="J10" s="374"/>
-    </row>
-    <row r="11" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="388" t="s">
+      <c r="L9" s="406"/>
+      <c r="M9" s="407" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="407"/>
+      <c r="O9" s="407"/>
+      <c r="P9" s="407"/>
+    </row>
+    <row r="10" spans="2:16" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="310"/>
+      <c r="C10" s="310"/>
+      <c r="D10" s="310"/>
+      <c r="E10" s="314"/>
+      <c r="F10" s="314"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="313"/>
+      <c r="I10" s="313"/>
+      <c r="J10" s="313"/>
+      <c r="L10" s="406"/>
+      <c r="M10" s="407"/>
+      <c r="N10" s="407"/>
+      <c r="O10" s="407"/>
+      <c r="P10" s="407"/>
+    </row>
+    <row r="11" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="390" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="389"/>
-      <c r="D11" s="389"/>
-      <c r="E11" s="389"/>
-      <c r="F11" s="390"/>
-      <c r="G11" s="391">
+      <c r="C11" s="391"/>
+      <c r="D11" s="391"/>
+      <c r="E11" s="391"/>
+      <c r="F11" s="392"/>
+      <c r="G11" s="321">
         <v>1</v>
       </c>
-      <c r="H11" s="392">
+      <c r="H11" s="322">
         <v>1</v>
       </c>
-      <c r="I11" s="392">
+      <c r="I11" s="322">
         <v>0</v>
       </c>
-      <c r="J11" s="393">
+      <c r="J11" s="323">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:10" ht="4.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:10" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="401" t="s">
+      <c r="L11" s="406"/>
+      <c r="M11" s="407"/>
+      <c r="N11" s="407"/>
+      <c r="O11" s="407"/>
+      <c r="P11" s="407"/>
+    </row>
+    <row r="12" spans="2:16" ht="7.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="406"/>
+      <c r="M12" s="407"/>
+      <c r="N12" s="407"/>
+      <c r="O12" s="407"/>
+      <c r="P12" s="407"/>
+    </row>
+    <row r="13" spans="2:16" ht="4.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="406"/>
+      <c r="M13" s="406"/>
+      <c r="N13" s="406"/>
+      <c r="O13" s="406"/>
+      <c r="P13" s="406"/>
+    </row>
+    <row r="14" spans="2:16" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="393" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="355"/>
-      <c r="D14" s="355"/>
-      <c r="E14" s="355"/>
-      <c r="F14" s="355"/>
-      <c r="G14" s="402" t="s">
+      <c r="C14" s="381"/>
+      <c r="D14" s="381"/>
+      <c r="E14" s="381"/>
+      <c r="F14" s="381"/>
+      <c r="G14" s="330" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="403" t="s">
+      <c r="H14" s="331" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="403" t="s">
+      <c r="I14" s="331" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="355"/>
-      <c r="C15" s="355"/>
-      <c r="D15" s="355"/>
-      <c r="E15" s="355"/>
-      <c r="F15" s="355"/>
-      <c r="G15" s="405">
+      <c r="L14" s="406"/>
+      <c r="M14" s="406"/>
+      <c r="N14" s="406"/>
+      <c r="O14" s="406"/>
+      <c r="P14" s="406"/>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="381"/>
+      <c r="C15" s="381"/>
+      <c r="D15" s="381"/>
+      <c r="E15" s="381"/>
+      <c r="F15" s="381"/>
+      <c r="G15" s="333">
         <v>-6.2830000000000004</v>
       </c>
-      <c r="H15" s="406">
+      <c r="H15" s="334">
         <v>0.126</v>
       </c>
-      <c r="I15" s="406">
+      <c r="I15" s="334">
         <v>6.2830000000000004</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="F16" s="404"/>
-      <c r="G16" s="404"/>
+      <c r="L15" s="406"/>
+      <c r="M15" s="406" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="406" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" s="406" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="F16" s="332"/>
+      <c r="G16" s="332"/>
+      <c r="L16" s="406">
+        <v>1</v>
+      </c>
+      <c r="M16" s="406">
+        <f>G15</f>
+        <v>-6.2830000000000004</v>
+      </c>
+      <c r="N16" s="406">
+        <f>$G$7*COS($H$7*M16+$I$7)+$J$7</f>
+        <v>1.9999998626449984</v>
+      </c>
+      <c r="O16" s="406">
+        <f>$G$9*SIN($H$9*M16+$I$9)+$J$9</f>
+        <v>3.7061435705115694E-4</v>
+      </c>
+      <c r="P16" s="406">
+        <f>$G$11*TAN($H$11*M16+$I$11)+$J$11</f>
+        <v>1.8530718170718704E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L17" s="406">
+        <f>L16+1</f>
+        <v>2</v>
+      </c>
+      <c r="M17" s="406">
+        <f>M16+$H$15</f>
+        <v>-6.157</v>
+      </c>
+      <c r="N17" s="406">
+        <f t="shared" ref="N17:N80" si="0">$G$7*COS($H$7*M17+$I$7)+$J$7</f>
+        <v>1.9366464006597808</v>
+      </c>
+      <c r="O17" s="406">
+        <f t="shared" ref="O17:O80" si="1">$G$9*SIN($H$9*M17+$I$9)+$J$9</f>
+        <v>0.25170140909462396</v>
+      </c>
+      <c r="P17" s="406">
+        <f t="shared" ref="P17:P80" si="2">$G$11*TAN($H$11*M17+$I$11)+$J$11</f>
+        <v>0.12685933874040059</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L18" s="406">
+        <f t="shared" ref="L18:L81" si="3">L17+1</f>
+        <v>3</v>
+      </c>
+      <c r="M18" s="406">
+        <f t="shared" ref="M18:M81" si="4">M17+$H$15</f>
+        <v>-6.0309999999999997</v>
+      </c>
+      <c r="N18" s="406">
+        <f t="shared" si="0"/>
+        <v>1.7509576050443236</v>
+      </c>
+      <c r="O18" s="406">
+        <f t="shared" si="1"/>
+        <v>0.49904147618777767</v>
+      </c>
+      <c r="P18" s="406">
+        <f t="shared" si="2"/>
+        <v>0.25767101267078973</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L19" s="406">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M19" s="406">
+        <f t="shared" si="4"/>
+        <v>-5.9049999999999994</v>
+      </c>
+      <c r="N19" s="406">
+        <f t="shared" si="0"/>
+        <v>1.4546631858558041</v>
+      </c>
+      <c r="O19" s="406">
+        <f t="shared" si="1"/>
+        <v>0.73846923710077184</v>
+      </c>
+      <c r="P19" s="406">
+        <f t="shared" si="2"/>
+        <v>0.39731005147085796</v>
+      </c>
+    </row>
+    <row r="20" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L20" s="406">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M20" s="406">
+        <f t="shared" si="4"/>
+        <v>-5.778999999999999</v>
+      </c>
+      <c r="N20" s="406">
+        <f t="shared" si="0"/>
+        <v>1.0664796607878269</v>
+      </c>
+      <c r="O20" s="406">
+        <f t="shared" si="1"/>
+        <v>0.96618856296903721</v>
+      </c>
+      <c r="P20" s="406">
+        <f t="shared" si="2"/>
+        <v>0.55174937272282631</v>
+      </c>
+    </row>
+    <row r="21" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L21" s="406">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M21" s="406">
+        <f t="shared" si="4"/>
+        <v>-5.6529999999999987</v>
+      </c>
+      <c r="N21" s="406">
+        <f t="shared" si="0"/>
+        <v>0.61092805806360073</v>
+      </c>
+      <c r="O21" s="406">
+        <f t="shared" si="1"/>
+        <v>1.1785889622495196</v>
+      </c>
+      <c r="P21" s="406">
+        <f t="shared" si="2"/>
+        <v>0.72939858560826298</v>
+      </c>
+    </row>
+    <row r="22" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L22" s="406">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M22" s="406">
+        <f t="shared" si="4"/>
+        <v>-5.5269999999999984</v>
+      </c>
+      <c r="N22" s="406">
+        <f t="shared" si="0"/>
+        <v>0.11678495625011225</v>
+      </c>
+      <c r="O22" s="406">
+        <f t="shared" si="1"/>
+        <v>1.3723028250899609</v>
+      </c>
+      <c r="P22" s="406">
+        <f t="shared" si="2"/>
+        <v>0.94321692959671877</v>
+      </c>
+    </row>
+    <row r="23" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L23" s="406">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M23" s="406">
+        <f t="shared" si="4"/>
+        <v>-5.400999999999998</v>
+      </c>
+      <c r="N23" s="406">
+        <f t="shared" si="0"/>
+        <v>-0.3847352932868755</v>
+      </c>
+      <c r="O23" s="406">
+        <f t="shared" si="1"/>
+        <v>1.5442588168072331</v>
+      </c>
+      <c r="P23" s="406">
+        <f t="shared" si="2"/>
+        <v>1.2150614368902624</v>
+      </c>
+    </row>
+    <row r="24" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L24" s="406">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M24" s="406">
+        <f t="shared" si="4"/>
+        <v>-5.2749999999999977</v>
+      </c>
+      <c r="N24" s="406">
+        <f t="shared" si="0"/>
+        <v>-0.86195233473820387</v>
+      </c>
+      <c r="O24" s="406">
+        <f t="shared" si="1"/>
+        <v>1.6917305739207422</v>
+      </c>
+      <c r="P24" s="406">
+        <f t="shared" si="2"/>
+        <v>1.5858093426187767</v>
+      </c>
+    </row>
+    <row r="25" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L25" s="406">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M25" s="406">
+        <f t="shared" si="4"/>
+        <v>-5.1489999999999974</v>
+      </c>
+      <c r="N25" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.2847210130770723</v>
+      </c>
+      <c r="O25" s="406">
+        <f t="shared" si="1"/>
+        <v>1.8123799306649455</v>
+      </c>
+      <c r="P25" s="406">
+        <f t="shared" si="2"/>
+        <v>2.1429473993321628</v>
+      </c>
+    </row>
+    <row r="26" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L26" s="406">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="M26" s="406">
+        <f t="shared" si="4"/>
+        <v>-5.022999999999997</v>
+      </c>
+      <c r="N26" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.6263356027278775</v>
+      </c>
+      <c r="O26" s="406">
+        <f t="shared" si="1"/>
+        <v>1.9042939906243146</v>
+      </c>
+      <c r="P26" s="406">
+        <f t="shared" si="2"/>
+        <v>3.1152516648024537</v>
+      </c>
+    </row>
+    <row r="27" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L27" s="406">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="M27" s="406">
+        <f t="shared" si="4"/>
+        <v>-4.8969999999999967</v>
+      </c>
+      <c r="N27" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.8652167721287753</v>
+      </c>
+      <c r="O27" s="406">
+        <f t="shared" si="1"/>
+        <v>1.9660154557197091</v>
+      </c>
+      <c r="P27" s="406">
+        <f t="shared" si="2"/>
+        <v>5.3551174609773442</v>
+      </c>
+    </row>
+    <row r="28" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L28" s="406">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="M28" s="406">
+        <f t="shared" si="4"/>
+        <v>-4.7709999999999964</v>
+      </c>
+      <c r="N28" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.9862747209183347</v>
+      </c>
+      <c r="O28" s="406">
+        <f t="shared" si="1"/>
+        <v>1.99656573167986</v>
+      </c>
+      <c r="P28" s="406">
+        <f t="shared" si="2"/>
+        <v>17.042096526443199</v>
+      </c>
+    </row>
+    <row r="29" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L29" s="406">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="M29" s="406">
+        <f t="shared" si="4"/>
+        <v>-4.644999999999996</v>
+      </c>
+      <c r="N29" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.9818623822139703</v>
+      </c>
+      <c r="O29" s="406">
+        <f t="shared" si="1"/>
+        <v>1.9954604436605528</v>
+      </c>
+      <c r="P29" s="406">
+        <f t="shared" si="2"/>
+        <v>-14.816751605132295</v>
+      </c>
+    </row>
+    <row r="30" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L30" s="406">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="M30" s="406">
+        <f t="shared" si="4"/>
+        <v>-4.5189999999999957</v>
+      </c>
+      <c r="N30" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.8522584774835269</v>
+      </c>
+      <c r="O30" s="406">
+        <f t="shared" si="1"/>
+        <v>1.9627171160112522</v>
+      </c>
+      <c r="P30" s="406">
+        <f t="shared" si="2"/>
+        <v>-5.106301155025827</v>
+      </c>
+    </row>
+    <row r="31" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L31" s="406">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="M31" s="406">
+        <f t="shared" si="4"/>
+        <v>-4.3929999999999954</v>
+      </c>
+      <c r="N31" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.6056499100871529</v>
+      </c>
+      <c r="O31" s="406">
+        <f t="shared" si="1"/>
+        <v>1.8988548944264154</v>
+      </c>
+      <c r="P31" s="406">
+        <f t="shared" si="2"/>
+        <v>-3.0237842894140581</v>
+      </c>
+    </row>
+    <row r="32" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L32" s="406">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="M32" s="406">
+        <f t="shared" si="4"/>
+        <v>-4.266999999999995</v>
+      </c>
+      <c r="N32" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.2576146096656089</v>
+      </c>
+      <c r="O32" s="406">
+        <f t="shared" si="1"/>
+        <v>1.8048863148867877</v>
+      </c>
+      <c r="P32" s="406">
+        <f t="shared" si="2"/>
+        <v>-2.0947642028376494</v>
+      </c>
+    </row>
+    <row r="33" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L33" s="406">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="M33" s="406">
+        <f t="shared" si="4"/>
+        <v>-4.1409999999999947</v>
+      </c>
+      <c r="N33" s="406">
+        <f t="shared" si="0"/>
+        <v>-0.83013749539550097</v>
+      </c>
+      <c r="O33" s="406">
+        <f t="shared" si="1"/>
+        <v>1.6823012498941743</v>
+      </c>
+      <c r="P33" s="406">
+        <f t="shared" si="2"/>
+        <v>-1.5553794504950544</v>
+      </c>
+    </row>
+    <row r="34" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L34" s="406">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="M34" s="406">
+        <f t="shared" si="4"/>
+        <v>-4.0149999999999944</v>
+      </c>
+      <c r="N34" s="406">
+        <f t="shared" si="0"/>
+        <v>-0.35022171838159949</v>
+      </c>
+      <c r="O34" s="406">
+        <f t="shared" si="1"/>
+        <v>1.533043286532249</v>
+      </c>
+      <c r="P34" s="406">
+        <f t="shared" si="2"/>
+        <v>-1.193552774307163</v>
+      </c>
+    </row>
+    <row r="35" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L35" s="406">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M35" s="406">
+        <f t="shared" si="4"/>
+        <v>-3.8889999999999945</v>
+      </c>
+      <c r="N35" s="406">
+        <f t="shared" si="0"/>
+        <v>0.15181709087410353</v>
+      </c>
+      <c r="O35" s="406">
+        <f t="shared" si="1"/>
+        <v>1.359478910879421</v>
+      </c>
+      <c r="P35" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.9267653727245575</v>
+      </c>
+    </row>
+    <row r="36" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L36" s="406">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="M36" s="406">
+        <f t="shared" si="4"/>
+        <v>-3.7629999999999946</v>
+      </c>
+      <c r="N36" s="406">
+        <f t="shared" si="0"/>
+        <v>0.64426581984642162</v>
+      </c>
+      <c r="O36" s="406">
+        <f t="shared" si="1"/>
+        <v>1.1643599873551043</v>
+      </c>
+      <c r="P36" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.71603576798111146</v>
+      </c>
+    </row>
+    <row r="37" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L37" s="406">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="M37" s="406">
+        <f t="shared" si="4"/>
+        <v>-3.6369999999999947</v>
+      </c>
+      <c r="N37" s="406">
+        <f t="shared" si="0"/>
+        <v>1.0960171484101677</v>
+      </c>
+      <c r="O37" s="406">
+        <f t="shared" si="1"/>
+        <v>0.95078012788963584</v>
+      </c>
+      <c r="P37" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.54035405793876157</v>
+      </c>
+    </row>
+    <row r="38" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L38" s="406">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="M38" s="406">
+        <f t="shared" si="4"/>
+        <v>-3.5109999999999948</v>
+      </c>
+      <c r="N38" s="406">
+        <f t="shared" si="0"/>
+        <v>1.4785345561768382</v>
+      </c>
+      <c r="O38" s="406">
+        <f t="shared" si="1"/>
+        <v>0.72212564268495683</v>
+      </c>
+      <c r="P38" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.38718150715586014</v>
+      </c>
+    </row>
+    <row r="39" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L39" s="406">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="M39" s="406">
+        <f t="shared" si="4"/>
+        <v>-3.3849999999999949</v>
+      </c>
+      <c r="N39" s="406">
+        <f t="shared" si="0"/>
+        <v>1.7676549358891831</v>
+      </c>
+      <c r="O39" s="406">
+        <f t="shared" si="1"/>
+        <v>0.48202185024209948</v>
+      </c>
+      <c r="P39" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.24833113019580119</v>
+      </c>
+    </row>
+    <row r="40" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L40" s="406">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="M40" s="406">
+        <f t="shared" si="4"/>
+        <v>-3.258999999999995</v>
+      </c>
+      <c r="N40" s="406">
+        <f t="shared" si="0"/>
+        <v>1.9451149442237328</v>
+      </c>
+      <c r="O40" s="406">
+        <f t="shared" si="1"/>
+        <v>0.23427559791038235</v>
+      </c>
+      <c r="P40" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.1179498042086834</v>
+      </c>
+    </row>
+    <row r="41" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L41" s="406">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="M41" s="406">
+        <f t="shared" si="4"/>
+        <v>-3.1329999999999951</v>
+      </c>
+      <c r="N41" s="406">
+        <f t="shared" si="0"/>
+        <v>1.9997046724856242</v>
+      </c>
+      <c r="O41" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.7185095704586758E-2</v>
+      </c>
+      <c r="P41" s="406">
+        <f t="shared" si="2"/>
+        <v>8.5928650718340941E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L42" s="406">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="M42" s="406">
+        <f t="shared" si="4"/>
+        <v>-3.0069999999999952</v>
+      </c>
+      <c r="N42" s="406">
+        <f t="shared" si="0"/>
+        <v>1.9279757613783808</v>
+      </c>
+      <c r="O42" s="406">
+        <f t="shared" si="1"/>
+        <v>-0.26837331950404325</v>
+      </c>
+      <c r="P42" s="406">
+        <f t="shared" si="2"/>
+        <v>0.13541130963318615</v>
+      </c>
+    </row>
+    <row r="43" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L43" s="406">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="M43" s="406">
+        <f t="shared" si="4"/>
+        <v>-2.8809999999999953</v>
+      </c>
+      <c r="N43" s="406">
+        <f t="shared" si="0"/>
+        <v>1.734459229196436</v>
+      </c>
+      <c r="O43" s="406">
+        <f t="shared" si="1"/>
+        <v>-0.51530648240009946</v>
+      </c>
+      <c r="P43" s="406">
+        <f t="shared" si="2"/>
+        <v>0.26665623604500688</v>
+      </c>
+    </row>
+    <row r="44" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L44" s="406">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="M44" s="406">
+        <f t="shared" si="4"/>
+        <v>-2.7549999999999955</v>
+      </c>
+      <c r="N44" s="406">
+        <f t="shared" si="0"/>
+        <v>1.4313792535281096</v>
+      </c>
+      <c r="O44" s="406">
+        <f t="shared" si="1"/>
+        <v>-0.75406945732597497</v>
+      </c>
+      <c r="P44" s="406">
+        <f t="shared" si="2"/>
+        <v>0.40707739810346705</v>
+      </c>
+    </row>
+    <row r="45" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L45" s="406">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="M45" s="406">
+        <f t="shared" si="4"/>
+        <v>-2.6289999999999956</v>
+      </c>
+      <c r="N45" s="406">
+        <f t="shared" si="0"/>
+        <v>1.0378809864917218</v>
+      </c>
+      <c r="O45" s="406">
+        <f t="shared" si="1"/>
+        <v>-0.98087665560368908</v>
+      </c>
+      <c r="P45" s="406">
+        <f t="shared" si="2"/>
+        <v>0.5627675154822025</v>
+      </c>
+    </row>
+    <row r="46" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L46" s="406">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="M46" s="406">
+        <f t="shared" si="4"/>
+        <v>-2.5029999999999957</v>
+      </c>
+      <c r="N46" s="406">
+        <f t="shared" si="0"/>
+        <v>0.57882118137192895</v>
+      </c>
+      <c r="O46" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.1921320474796704</v>
+      </c>
+      <c r="P46" s="406">
+        <f t="shared" si="2"/>
+        <v>0.74235860794953468</v>
+      </c>
+    </row>
+    <row r="47" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L47" s="406">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="M47" s="406">
+        <f t="shared" si="4"/>
+        <v>-2.3769999999999958</v>
+      </c>
+      <c r="N47" s="406">
+        <f t="shared" si="0"/>
+        <v>8.3198025135866147E-2</v>
+      </c>
+      <c r="O47" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.3844861772022623</v>
+      </c>
+      <c r="P47" s="406">
+        <f t="shared" si="2"/>
+        <v>0.95923131106856674</v>
+      </c>
+    </row>
+    <row r="48" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L48" s="406">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="M48" s="406">
+        <f t="shared" si="4"/>
+        <v>-2.2509999999999959</v>
+      </c>
+      <c r="N48" s="406">
+        <f t="shared" si="0"/>
+        <v>-0.4176806378147449</v>
+      </c>
+      <c r="O48" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.5548892686666613</v>
+      </c>
+      <c r="P48" s="406">
+        <f t="shared" si="2"/>
+        <v>1.2360965520547245</v>
+      </c>
+    </row>
+    <row r="49" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L49" s="406">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="M49" s="406">
+        <f t="shared" si="4"/>
+        <v>-2.124999999999996</v>
+      </c>
+      <c r="N49" s="406">
+        <f t="shared" si="0"/>
+        <v>-0.89217497982759986</v>
+      </c>
+      <c r="O49" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.7006395796369083</v>
+      </c>
+      <c r="P49" s="406">
+        <f t="shared" si="2"/>
+        <v>1.6157594239734745</v>
+      </c>
+    </row>
+    <row r="50" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L50" s="406">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="M50" s="406">
+        <f t="shared" si="4"/>
+        <v>-1.9989999999999961</v>
+      </c>
+      <c r="N50" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.3103118351167158</v>
+      </c>
+      <c r="O50" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.8194262378883943</v>
+      </c>
+      <c r="P50" s="406">
+        <f t="shared" si="2"/>
+        <v>2.1908269093209292</v>
+      </c>
+    </row>
+    <row r="51" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L51" s="406">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="M51" s="406">
+        <f t="shared" si="4"/>
+        <v>-1.8729999999999962</v>
+      </c>
+      <c r="N51" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.6456780641035582</v>
+      </c>
+      <c r="O51" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.909365880103538</v>
+      </c>
+      <c r="P51" s="406">
+        <f t="shared" si="2"/>
+        <v>3.2076733614779225</v>
+      </c>
+    </row>
+    <row r="52" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L52" s="406">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="M52" s="406">
+        <f t="shared" si="4"/>
+        <v>-1.7469999999999963</v>
+      </c>
+      <c r="N52" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.8770890357179211</v>
+      </c>
+      <c r="O52" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.9690325126106782</v>
+      </c>
+      <c r="P52" s="406">
+        <f t="shared" si="2"/>
+        <v>5.6163940982019902</v>
+      </c>
+    </row>
+    <row r="53" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L53" s="406">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="M53" s="406">
+        <f t="shared" si="4"/>
+        <v>-1.6209999999999964</v>
+      </c>
+      <c r="N53" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.9899268318883914</v>
+      </c>
+      <c r="O53" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.9974801205239545</v>
+      </c>
+      <c r="P53" s="406">
+        <f t="shared" si="2"/>
+        <v>19.902123863539483</v>
+      </c>
+    </row>
+    <row r="54" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L54" s="406">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="M54" s="406">
+        <f t="shared" si="4"/>
+        <v>-1.4949999999999966</v>
+      </c>
+      <c r="N54" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.97706364165479</v>
+      </c>
+      <c r="O54" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.9942576668160987</v>
+      </c>
+      <c r="P54" s="406">
+        <f t="shared" si="2"/>
+        <v>-13.167976346854354</v>
+      </c>
+    </row>
+    <row r="55" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L55" s="406">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="M55" s="406">
+        <f t="shared" si="4"/>
+        <v>-1.3689999999999967</v>
+      </c>
+      <c r="N55" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.8393120153454783</v>
+      </c>
+      <c r="O55" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.9594162435137354</v>
+      </c>
+      <c r="P55" s="406">
+        <f t="shared" si="2"/>
+        <v>-4.8880428238793456</v>
+      </c>
+    </row>
+    <row r="56" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L56" s="406">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="M56" s="406">
+        <f t="shared" si="4"/>
+        <v>-1.2429999999999968</v>
+      </c>
+      <c r="N56" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.5853735368721693</v>
+      </c>
+      <c r="O56" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.8935082616329324</v>
+      </c>
+      <c r="P56" s="406">
+        <f t="shared" si="2"/>
+        <v>-2.9406185723143499</v>
+      </c>
+    </row>
+    <row r="57" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L57" s="406">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="M57" s="406">
+        <f t="shared" si="4"/>
+        <v>-1.1169999999999969</v>
+      </c>
+      <c r="N57" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.2312891564439479</v>
+      </c>
+      <c r="O57" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.7975786926985833</v>
+      </c>
+      <c r="P57" s="406">
+        <f t="shared" si="2"/>
+        <v>-2.0502480520082926</v>
+      </c>
+    </row>
+    <row r="58" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L58" s="406">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="M58" s="406">
+        <f t="shared" si="4"/>
+        <v>-0.99099999999999688</v>
+      </c>
+      <c r="N58" s="406">
+        <f t="shared" si="0"/>
+        <v>-0.79942590543948244</v>
+      </c>
+      <c r="O58" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.6731485007133953</v>
+      </c>
+      <c r="P58" s="406">
+        <f t="shared" si="2"/>
+        <v>-1.5270034016933942</v>
+      </c>
+    </row>
+    <row r="59" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L59" s="406">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="M59" s="406">
+        <f t="shared" si="4"/>
+        <v>-0.86499999999999688</v>
+      </c>
+      <c r="N59" s="406">
+        <f t="shared" si="0"/>
+        <v>-0.31706400128838325</v>
+      </c>
+      <c r="O59" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.5221905272627285</v>
+      </c>
+      <c r="P59" s="406">
+        <f t="shared" si="2"/>
+        <v>-1.1733706337693091</v>
+      </c>
+    </row>
+    <row r="60" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L60" s="406">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="M60" s="406">
+        <f t="shared" si="4"/>
+        <v>-0.73899999999999688</v>
+      </c>
+      <c r="N60" s="406">
+        <f t="shared" si="0"/>
+        <v>0.18532640696472361</v>
+      </c>
+      <c r="O60" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.3470982120971271</v>
+      </c>
+      <c r="P60" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.91125747300289139</v>
+      </c>
+    </row>
+    <row r="61" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L61" s="406">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="M61" s="406">
+        <f t="shared" si="4"/>
+        <v>-0.61299999999999688</v>
+      </c>
+      <c r="N61" s="406">
+        <f t="shared" si="0"/>
+        <v>0.67600999676155527</v>
+      </c>
+      <c r="O61" s="406">
+        <f t="shared" si="1"/>
+        <v>-1.1506476451279275</v>
+      </c>
+      <c r="P61" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.70339372111986542</v>
+      </c>
+    </row>
+    <row r="62" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L62" s="406">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="M62" s="406">
+        <f t="shared" si="4"/>
+        <v>-0.48699999999999688</v>
+      </c>
+      <c r="N62" s="406">
+        <f t="shared" si="0"/>
+        <v>1.1239909494311202</v>
+      </c>
+      <c r="O62" s="406">
+        <f t="shared" si="1"/>
+        <v>-0.93595355150182513</v>
+      </c>
+      <c r="P62" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.52954078276503691</v>
+      </c>
+    </row>
+    <row r="63" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L63" s="406">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="M63" s="406">
+        <f t="shared" si="4"/>
+        <v>-0.36099999999999688</v>
+      </c>
+      <c r="N63" s="406">
+        <f t="shared" si="0"/>
+        <v>1.5009709141303569</v>
+      </c>
+      <c r="O63" s="406">
+        <f t="shared" si="1"/>
+        <v>-0.70641990761136042</v>
+      </c>
+      <c r="P63" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.37754496102267854</v>
+      </c>
+    </row>
+    <row r="64" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L64" s="406">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="M64" s="406">
+        <f t="shared" si="4"/>
+        <v>-0.23499999999999688</v>
+      </c>
+      <c r="N64" s="406">
+        <f t="shared" si="0"/>
+        <v>1.7831365763906635</v>
+      </c>
+      <c r="O64" s="406">
+        <f t="shared" si="1"/>
+        <v>-0.46568597102482751</v>
+      </c>
+      <c r="P64" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.23942370370944582</v>
+      </c>
+    </row>
+    <row r="65" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L65" s="406">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="M65" s="406">
+        <f t="shared" si="4"/>
+        <v>-0.10899999999999688</v>
+      </c>
+      <c r="N65" s="406">
+        <f t="shared" si="0"/>
+        <v>1.9526639129830954</v>
+      </c>
+      <c r="O65" s="406">
+        <f t="shared" si="1"/>
+        <v>-0.21756858003145702</v>
+      </c>
+      <c r="P65" s="406">
+        <f t="shared" si="2"/>
+        <v>-0.10943373774527267</v>
+      </c>
+    </row>
+    <row r="66" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L66" s="406">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="M66" s="406">
+        <f t="shared" si="4"/>
+        <v>1.7000000000003124E-2</v>
+      </c>
+      <c r="N66" s="406">
+        <f t="shared" si="0"/>
+        <v>1.9988441113570419</v>
+      </c>
+      <c r="O66" s="406">
+        <f t="shared" si="1"/>
+        <v>3.3998362357003702E-2</v>
+      </c>
+      <c r="P66" s="406">
+        <f t="shared" si="2"/>
+        <v>1.7001637856006207E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L67" s="406">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="M67" s="406">
+        <f t="shared" si="4"/>
+        <v>0.14300000000000312</v>
+      </c>
+      <c r="N67" s="406">
+        <f t="shared" si="0"/>
+        <v>1.9187600308443546</v>
+      </c>
+      <c r="O67" s="406">
+        <f t="shared" si="1"/>
+        <v>0.28502626046672513</v>
+      </c>
+      <c r="P67" s="406">
+        <f t="shared" si="2"/>
+        <v>0.14398277515784177</v>
+      </c>
+    </row>
+    <row r="68" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L68" s="406">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="M68" s="406">
+        <f t="shared" si="4"/>
+        <v>0.26900000000000313</v>
+      </c>
+      <c r="N68" s="406">
+        <f t="shared" si="0"/>
+        <v>1.7174704744896434</v>
+      </c>
+      <c r="O68" s="406">
+        <f t="shared" si="1"/>
+        <v>0.531535065174779</v>
+      </c>
+      <c r="P68" s="406">
+        <f t="shared" si="2"/>
+        <v>0.27568183832459875</v>
+      </c>
+    </row>
+    <row r="69" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L69" s="406">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="M69" s="406">
+        <f t="shared" si="4"/>
+        <v>0.39500000000000313</v>
+      </c>
+      <c r="N69" s="406">
+        <f t="shared" si="0"/>
+        <v>1.4076906313044633</v>
+      </c>
+      <c r="O69" s="406">
+        <f t="shared" si="1"/>
+        <v>0.76961637761649582</v>
+      </c>
+      <c r="P69" s="406">
+        <f t="shared" si="2"/>
+        <v>0.41691183224909656</v>
+      </c>
+    </row>
+    <row r="70" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L70" s="406">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="M70" s="406">
+        <f t="shared" si="4"/>
+        <v>0.52100000000000313</v>
+      </c>
+      <c r="N70" s="406">
+        <f t="shared" si="0"/>
+        <v>1.0089888749759628</v>
+      </c>
+      <c r="O70" s="406">
+        <f t="shared" si="1"/>
+        <v>0.99549541687746468</v>
+      </c>
+      <c r="P70" s="406">
+        <f t="shared" si="2"/>
+        <v>0.57389041844288291</v>
+      </c>
+    </row>
+    <row r="71" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L71" s="406">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="M71" s="406">
+        <f t="shared" si="4"/>
+        <v>0.64700000000000313</v>
+      </c>
+      <c r="N71" s="406">
+        <f t="shared" si="0"/>
+        <v>0.54655065616916398</v>
+      </c>
+      <c r="O71" s="406">
+        <f t="shared" si="1"/>
+        <v>1.2055908691719741</v>
+      </c>
+      <c r="P71" s="406">
+        <f t="shared" si="2"/>
+        <v>0.75548142405864793</v>
+      </c>
+    </row>
+    <row r="72" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L72" s="406">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="M72" s="406">
+        <f t="shared" si="4"/>
+        <v>0.77300000000000313</v>
+      </c>
+      <c r="N72" s="406">
+        <f t="shared" si="0"/>
+        <v>4.9587571674182825E-2</v>
+      </c>
+      <c r="O72" s="406">
+        <f t="shared" si="1"/>
+        <v>1.3965716695987418</v>
+      </c>
+      <c r="P72" s="406">
+        <f t="shared" si="2"/>
+        <v>0.97550609757446871</v>
+      </c>
+    </row>
+    <row r="73" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L73" s="406">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="M73" s="406">
+        <f t="shared" si="4"/>
+        <v>0.89900000000000313</v>
+      </c>
+      <c r="N73" s="406">
+        <f t="shared" si="0"/>
+        <v>-0.45050789265152419</v>
+      </c>
+      <c r="O73" s="406">
+        <f t="shared" si="1"/>
+        <v>1.5654098161987884</v>
+      </c>
+      <c r="P73" s="406">
+        <f t="shared" si="2"/>
+        <v>1.2575734751398955</v>
+      </c>
+    </row>
+    <row r="74" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L74" s="406">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="M74" s="406">
+        <f t="shared" si="4"/>
+        <v>1.025000000000003</v>
+      </c>
+      <c r="N74" s="406">
+        <f t="shared" si="0"/>
+        <v>-0.92214538275343649</v>
+      </c>
+      <c r="O74" s="406">
+        <f t="shared" si="1"/>
+        <v>1.7094283789481899</v>
+      </c>
+      <c r="P74" s="406">
+        <f t="shared" si="2"/>
+        <v>1.6465344294765589</v>
+      </c>
+    </row>
+    <row r="75" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L75" s="406">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="M75" s="406">
+        <f t="shared" si="4"/>
+        <v>1.1510000000000029</v>
+      </c>
+      <c r="N75" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.3355321963166202</v>
+      </c>
+      <c r="O75" s="406">
+        <f t="shared" si="1"/>
+        <v>1.8263439425027861</v>
+      </c>
+      <c r="P75" s="406">
+        <f t="shared" si="2"/>
+        <v>2.2405033486537196</v>
+      </c>
+    </row>
+    <row r="76" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L76" s="406">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="M76" s="406">
+        <f t="shared" si="4"/>
+        <v>1.2770000000000028</v>
+      </c>
+      <c r="N76" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.6645552474734828</v>
+      </c>
+      <c r="O76" s="406">
+        <f t="shared" si="1"/>
+        <v>1.9143028097648196</v>
+      </c>
+      <c r="P76" s="406">
+        <f t="shared" si="2"/>
+        <v>3.3052182004054793</v>
+      </c>
+    </row>
+    <row r="77" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L77" s="406">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="M77" s="406">
+        <f t="shared" si="4"/>
+        <v>1.4030000000000027</v>
+      </c>
+      <c r="N77" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.888430595117583</v>
+      </c>
+      <c r="O77" s="406">
+        <f t="shared" si="1"/>
+        <v>1.9719103922637009</v>
+      </c>
+      <c r="P77" s="406">
+        <f t="shared" si="2"/>
+        <v>5.903568646087118</v>
+      </c>
+    </row>
+    <row r="78" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L78" s="406">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="M78" s="406">
+        <f t="shared" si="4"/>
+        <v>1.5290000000000026</v>
+      </c>
+      <c r="N78" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.993016336351058</v>
+      </c>
+      <c r="O78" s="406">
+        <f t="shared" si="1"/>
+        <v>1.9982533213662022</v>
+      </c>
+      <c r="P78" s="406">
+        <f t="shared" si="2"/>
+        <v>23.911613719025262</v>
+      </c>
+    </row>
+    <row r="79" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L79" s="406">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="M79" s="406">
+        <f t="shared" si="4"/>
+        <v>1.6550000000000025</v>
+      </c>
+      <c r="N79" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.9717059313624044</v>
+      </c>
+      <c r="O79" s="406">
+        <f t="shared" si="1"/>
+        <v>1.9929139297426781</v>
+      </c>
+      <c r="P79" s="406">
+        <f t="shared" si="2"/>
+        <v>-11.847885307064628</v>
+      </c>
+    </row>
+    <row r="80" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L80" s="406">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="M80" s="406">
+        <f t="shared" si="4"/>
+        <v>1.7810000000000024</v>
+      </c>
+      <c r="N80" s="406">
+        <f t="shared" si="0"/>
+        <v>-1.8258455296103953</v>
+      </c>
+      <c r="O80" s="406">
+        <f t="shared" si="1"/>
+        <v>1.9559768734855725</v>
+      </c>
+      <c r="P80" s="406">
+        <f t="shared" si="2"/>
+        <v>-4.6870156339738278</v>
+      </c>
+    </row>
+    <row r="81" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L81" s="406">
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="M81" s="406">
+        <f t="shared" si="4"/>
+        <v>1.9070000000000022</v>
+      </c>
+      <c r="N81" s="406">
+        <f t="shared" ref="N81:N116" si="5">$G$7*COS($H$7*M81+$I$7)+$J$7</f>
+        <v>-1.5646489353835642</v>
+      </c>
+      <c r="O81" s="406">
+        <f t="shared" ref="O81:O116" si="6">$G$9*SIN($H$9*M81+$I$9)+$J$9</f>
+        <v>1.8880277898864637</v>
+      </c>
+      <c r="P81" s="406">
+        <f t="shared" ref="P81:P116" si="7">$G$11*TAN($H$11*M81+$I$11)+$J$11</f>
+        <v>-2.8614659143282859</v>
+      </c>
+    </row>
+    <row r="82" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L82" s="406">
+        <f t="shared" ref="L82:L145" si="8">L81+1</f>
+        <v>67</v>
+      </c>
+      <c r="M82" s="406">
+        <f t="shared" ref="M82:M116" si="9">M81+$H$15</f>
+        <v>2.0330000000000021</v>
+      </c>
+      <c r="N82" s="406">
+        <f t="shared" si="5"/>
+        <v>-1.204615584245851</v>
+      </c>
+      <c r="O82" s="406">
+        <f t="shared" si="6"/>
+        <v>1.790144012152612</v>
+      </c>
+      <c r="P82" s="406">
+        <f t="shared" si="7"/>
+        <v>-2.0072405939160722</v>
+      </c>
+    </row>
+    <row r="83" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L83" s="406">
+        <f t="shared" si="8"/>
+        <v>68</v>
+      </c>
+      <c r="M83" s="406">
+        <f t="shared" si="9"/>
+        <v>2.159000000000002</v>
+      </c>
+      <c r="N83" s="406">
+        <f t="shared" si="5"/>
+        <v>-0.76848829600909074</v>
+      </c>
+      <c r="O83" s="406">
+        <f t="shared" si="6"/>
+        <v>1.6638774882812408</v>
+      </c>
+      <c r="P83" s="406">
+        <f t="shared" si="7"/>
+        <v>-1.499346720636185</v>
+      </c>
+    </row>
+    <row r="84" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L84" s="406">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="M84" s="406">
+        <f t="shared" si="9"/>
+        <v>2.2850000000000019</v>
+      </c>
+      <c r="N84" s="406">
+        <f t="shared" si="5"/>
+        <v>-0.28381664156733977</v>
+      </c>
+      <c r="O84" s="406">
+        <f t="shared" si="6"/>
+        <v>1.5112301749129216</v>
+      </c>
+      <c r="P84" s="406">
+        <f t="shared" si="7"/>
+        <v>-1.1535828036201592</v>
+      </c>
+    </row>
+    <row r="85" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L85" s="406">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="M85" s="406">
+        <f t="shared" si="9"/>
+        <v>2.4110000000000018</v>
+      </c>
+      <c r="N85" s="406">
+        <f t="shared" si="5"/>
+        <v>0.2187833262330737</v>
+      </c>
+      <c r="O85" s="406">
+        <f t="shared" si="6"/>
+        <v>1.3346222962946956</v>
+      </c>
+      <c r="P85" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.89598539218629791</v>
+      </c>
+    </row>
+    <row r="86" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L86" s="406">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="M86" s="406">
+        <f t="shared" si="9"/>
+        <v>2.5370000000000017</v>
+      </c>
+      <c r="N86" s="406">
+        <f t="shared" si="5"/>
+        <v>0.70756304724071273</v>
+      </c>
+      <c r="O86" s="406">
+        <f t="shared" si="6"/>
+        <v>1.1368539716072981</v>
+      </c>
+      <c r="P86" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.69090032061945306</v>
+      </c>
+    </row>
+    <row r="87" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L87" s="406">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="M87" s="406">
+        <f t="shared" si="9"/>
+        <v>2.6630000000000016</v>
+      </c>
+      <c r="N87" s="406">
+        <f t="shared" si="5"/>
+        <v>1.151646967600835</v>
+      </c>
+      <c r="O87" s="406">
+        <f t="shared" si="6"/>
+        <v>0.92106081905548731</v>
+      </c>
+      <c r="P87" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.51882336520009686</v>
+      </c>
+    </row>
+    <row r="88" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L88" s="406">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="M88" s="406">
+        <f t="shared" si="9"/>
+        <v>2.7890000000000015</v>
+      </c>
+      <c r="N88" s="406">
+        <f t="shared" si="5"/>
+        <v>1.5229829067302567</v>
+      </c>
+      <c r="O88" s="406">
+        <f t="shared" si="6"/>
+        <v>0.69066424061894449</v>
+      </c>
+      <c r="P88" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.36796939846559823</v>
+      </c>
+    </row>
+    <row r="89" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L89" s="406">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="M89" s="406">
+        <f t="shared" si="9"/>
+        <v>2.9150000000000014</v>
+      </c>
+      <c r="N89" s="406">
+        <f t="shared" si="5"/>
+        <v>1.7981140756215379</v>
+      </c>
+      <c r="O89" s="406">
+        <f t="shared" si="6"/>
+        <v>0.44931717569937385</v>
+      </c>
+      <c r="P89" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.2305520658652129</v>
+      </c>
+    </row>
+    <row r="90" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L90" s="406">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="M90" s="406">
+        <f t="shared" si="9"/>
+        <v>3.0410000000000013</v>
+      </c>
+      <c r="N90" s="406">
+        <f t="shared" si="5"/>
+        <v>1.9596608104770303</v>
+      </c>
+      <c r="O90" s="406">
+        <f t="shared" si="6"/>
+        <v>0.20084618374011914</v>
+      </c>
+      <c r="P90" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.10093332761480862</v>
+      </c>
+    </row>
+    <row r="91" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L91" s="406">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="M91" s="406">
+        <f t="shared" si="9"/>
+        <v>3.1670000000000011</v>
+      </c>
+      <c r="N91" s="406">
+        <f t="shared" si="5"/>
+        <v>1.9974184225633183</v>
+      </c>
+      <c r="O91" s="406">
+        <f t="shared" si="6"/>
+        <v>-5.0809225901225066E-2</v>
+      </c>
+      <c r="P91" s="406">
+        <f t="shared" si="7"/>
+        <v>2.5412814917901309E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L92" s="406">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="M92" s="406">
+        <f t="shared" si="9"/>
+        <v>3.293000000000001</v>
+      </c>
+      <c r="N92" s="406">
+        <f t="shared" si="5"/>
+        <v>1.909001814595692</v>
+      </c>
+      <c r="O92" s="406">
+        <f t="shared" si="6"/>
+        <v>-0.30165905490190098</v>
+      </c>
+      <c r="P92" s="406">
+        <f t="shared" si="7"/>
+        <v>0.15257501806538845</v>
+      </c>
+    </row>
+    <row r="93" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L93" s="406">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="M93" s="406">
+        <f t="shared" si="9"/>
+        <v>3.4190000000000009</v>
+      </c>
+      <c r="N93" s="406">
+        <f t="shared" si="5"/>
+        <v>1.6999961441075493</v>
+      </c>
+      <c r="O93" s="406">
+        <f t="shared" si="6"/>
+        <v>-0.54772607742598001</v>
+      </c>
+      <c r="P93" s="406">
+        <f t="shared" si="7"/>
+        <v>0.28474937701885827</v>
+      </c>
+    </row>
+    <row r="94" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L94" s="406">
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="M94" s="406">
+        <f t="shared" si="9"/>
+        <v>3.5450000000000008</v>
+      </c>
+      <c r="N94" s="406">
+        <f t="shared" si="5"/>
+        <v>1.3836040166034722</v>
+      </c>
+      <c r="O94" s="406">
+        <f t="shared" si="6"/>
+        <v>-0.78510889906848458</v>
+      </c>
+      <c r="P94" s="406">
+        <f t="shared" si="7"/>
+        <v>0.4268154523167666</v>
+      </c>
+    </row>
+    <row r="95" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L95" s="406">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="M95" s="406">
+        <f t="shared" si="9"/>
+        <v>3.6710000000000007</v>
+      </c>
+      <c r="N95" s="406">
+        <f t="shared" si="5"/>
+        <v>0.9798114948272868</v>
+      </c>
+      <c r="O95" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.0100438134916292</v>
+      </c>
+      <c r="P95" s="406">
+        <f t="shared" si="7"/>
+        <v>0.58512117803174768</v>
+      </c>
+    </row>
+    <row r="96" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L96" s="406">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="M96" s="406">
+        <f t="shared" si="9"/>
+        <v>3.7970000000000006</v>
+      </c>
+      <c r="N96" s="406">
+        <f t="shared" si="5"/>
+        <v>0.51412560621159842</v>
+      </c>
+      <c r="O96" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.2189644760157703</v>
+      </c>
+      <c r="P96" s="406">
+        <f t="shared" si="7"/>
+        <v>0.7687720113361487</v>
+      </c>
+    </row>
+    <row r="97" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L97" s="406">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="M97" s="406">
+        <f t="shared" si="9"/>
+        <v>3.9230000000000005</v>
+      </c>
+      <c r="N97" s="406">
+        <f t="shared" si="5"/>
+        <v>1.5963098455566684E-2</v>
+      </c>
+      <c r="O97" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.408558448039851</v>
+      </c>
+      <c r="P97" s="406">
+        <f t="shared" si="7"/>
+        <v>0.99205005061325846</v>
+      </c>
+    </row>
+    <row r="98" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L98" s="406">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="M98" s="406">
+        <f t="shared" si="9"/>
+        <v>4.0490000000000004</v>
+      </c>
+      <c r="N98" s="406">
+        <f t="shared" si="5"/>
+        <v>-0.48320777663828612</v>
+      </c>
+      <c r="O98" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.5758197157791516</v>
+      </c>
+      <c r="P98" s="406">
+        <f t="shared" si="7"/>
+        <v>1.2795094068958039</v>
+      </c>
+    </row>
+    <row r="99" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L99" s="406">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="M99" s="406">
+        <f t="shared" si="9"/>
+        <v>4.1750000000000007</v>
+      </c>
+      <c r="N99" s="406">
+        <f t="shared" si="5"/>
+        <v>-0.9518550700666224</v>
+      </c>
+      <c r="O99" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.7180963506353835</v>
+      </c>
+      <c r="P99" s="406">
+        <f t="shared" si="7"/>
+        <v>1.6781734518083602</v>
+      </c>
+    </row>
+    <row r="100" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L100" s="406">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="M100" s="406">
+        <f t="shared" si="9"/>
+        <v>4.301000000000001</v>
+      </c>
+      <c r="N100" s="406">
+        <f t="shared" si="5"/>
+        <v>-1.3603749661938487</v>
+      </c>
+      <c r="O100" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.8331325555436107</v>
+      </c>
+      <c r="P100" s="406">
+        <f t="shared" si="7"/>
+        <v>2.2920872422041083</v>
+      </c>
+    </row>
+    <row r="101" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L101" s="406">
+        <f t="shared" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="M101" s="406">
+        <f t="shared" si="9"/>
+        <v>4.4270000000000014</v>
+      </c>
+      <c r="N101" s="406">
+        <f t="shared" si="5"/>
+        <v>-1.6829618157438304</v>
+      </c>
+      <c r="O101" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.919104430650878</v>
+      </c>
+      <c r="P101" s="406">
+        <f t="shared" si="7"/>
+        <v>3.4083392987317778</v>
+      </c>
+    </row>
+    <row r="102" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L102" s="406">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="M102" s="406">
+        <f t="shared" si="9"/>
+        <v>4.5530000000000017</v>
+      </c>
+      <c r="N102" s="406">
+        <f t="shared" si="5"/>
+        <v>-1.8992382437600548</v>
+      </c>
+      <c r="O102" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.9746488912614453</v>
+      </c>
+      <c r="P102" s="406">
+        <f t="shared" si="7"/>
+        <v>6.2207395900259765</v>
+      </c>
+    </row>
+    <row r="103" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L103" s="406">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="M103" s="406">
+        <f t="shared" si="9"/>
+        <v>4.679000000000002</v>
+      </c>
+      <c r="N103" s="406">
+        <f t="shared" si="5"/>
+        <v>-1.9955423608192862</v>
+      </c>
+      <c r="O103" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.9988852795544036</v>
+      </c>
+      <c r="P103" s="406">
+        <f t="shared" si="7"/>
+        <v>29.938870635093895</v>
+      </c>
+    </row>
+    <row r="104" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L104" s="406">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="M104" s="406">
+        <f t="shared" si="9"/>
+        <v>4.8050000000000024</v>
+      </c>
+      <c r="N104" s="406">
+        <f t="shared" si="5"/>
+        <v>-1.9657907661074201</v>
+      </c>
+      <c r="O104" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.9914293274197354</v>
+      </c>
+      <c r="P104" s="406">
+        <f t="shared" si="7"/>
+        <v>-10.766963094173494</v>
+      </c>
+    </row>
+    <row r="105" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L105" s="406">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="M105" s="406">
+        <f t="shared" si="9"/>
+        <v>4.9310000000000027</v>
+      </c>
+      <c r="N105" s="406">
+        <f t="shared" si="5"/>
+        <v>-1.8118628276205282</v>
+      </c>
+      <c r="O105" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.9523992490319515</v>
+      </c>
+      <c r="P105" s="406">
+        <f t="shared" si="7"/>
+        <v>-4.5012312539459511</v>
+      </c>
+    </row>
+    <row r="106" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L106" s="406">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="M106" s="406">
+        <f t="shared" si="9"/>
+        <v>5.057000000000003</v>
+      </c>
+      <c r="N106" s="406">
+        <f t="shared" si="5"/>
+        <v>-1.543481965030572</v>
+      </c>
+      <c r="O106" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.8824138665635068</v>
+      </c>
+      <c r="P106" s="406">
+        <f t="shared" si="7"/>
+        <v>-2.7860322782578582</v>
+      </c>
+    </row>
+    <row r="107" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L107" s="406">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="M107" s="406">
+        <f t="shared" si="9"/>
+        <v>5.1830000000000034</v>
+      </c>
+      <c r="N107" s="406">
+        <f t="shared" si="5"/>
+        <v>-1.1776014344165799</v>
+      </c>
+      <c r="O107" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.7825827987548235</v>
+      </c>
+      <c r="P107" s="406">
+        <f t="shared" si="7"/>
+        <v>-1.9656606301622808</v>
+      </c>
+    </row>
+    <row r="108" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L108" s="406">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="M108" s="406">
+        <f t="shared" si="9"/>
+        <v>5.3090000000000037</v>
+      </c>
+      <c r="N108" s="406">
+        <f t="shared" si="5"/>
+        <v>-0.73733341400903485</v>
+      </c>
+      <c r="O108" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.6544888679012122</v>
+      </c>
+      <c r="P108" s="406">
+        <f t="shared" si="7"/>
+        <v>-1.4723786298540331</v>
+      </c>
+    </row>
+    <row r="109" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L109" s="406">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="M109" s="406">
+        <f t="shared" si="9"/>
+        <v>5.4350000000000041</v>
+      </c>
+      <c r="N109" s="406">
+        <f t="shared" si="5"/>
+        <v>-0.25048903915248522</v>
+      </c>
+      <c r="O109" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.5001630041940393</v>
+      </c>
+      <c r="P109" s="406">
+        <f t="shared" si="7"/>
+        <v>-1.1341751228437211</v>
+      </c>
+    </row>
+    <row r="110" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L110" s="406">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="M110" s="406">
+        <f t="shared" si="9"/>
+        <v>5.5610000000000044</v>
+      </c>
+      <c r="N110" s="406">
+        <f t="shared" si="5"/>
+        <v>0.25217838949694971</v>
+      </c>
+      <c r="O110" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.322052045307994</v>
+      </c>
+      <c r="P110" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.88094168135166395</v>
+      </c>
+    </row>
+    <row r="111" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L111" s="406">
+        <f t="shared" si="8"/>
+        <v>96</v>
+      </c>
+      <c r="M111" s="406">
+        <f t="shared" si="9"/>
+        <v>5.6870000000000047</v>
+      </c>
+      <c r="N111" s="406">
+        <f t="shared" si="5"/>
+        <v>0.73891605037724739</v>
+      </c>
+      <c r="O111" s="406">
+        <f t="shared" si="6"/>
+        <v>-1.1229799417722262</v>
+      </c>
+      <c r="P111" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.67855122459655814</v>
+      </c>
+    </row>
+    <row r="112" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L112" s="406">
+        <f t="shared" si="8"/>
+        <v>97</v>
+      </c>
+      <c r="M112" s="406">
+        <f t="shared" si="9"/>
+        <v>5.8130000000000051</v>
+      </c>
+      <c r="N112" s="406">
+        <f t="shared" si="5"/>
+        <v>1.1789773838098276</v>
+      </c>
+      <c r="O112" s="406">
+        <f t="shared" si="6"/>
+        <v>-0.90610298321447569</v>
+      </c>
+      <c r="P112" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.50819904096448887</v>
+      </c>
+    </row>
+    <row r="113" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L113" s="406">
+        <f t="shared" si="8"/>
+        <v>98</v>
+      </c>
+      <c r="M113" s="406">
+        <f t="shared" si="9"/>
+        <v>5.9390000000000054</v>
+      </c>
+      <c r="N113" s="406">
+        <f t="shared" si="5"/>
+        <v>1.5445643105867863</v>
+      </c>
+      <c r="O113" s="406">
+        <f t="shared" si="6"/>
+        <v>-0.67485975536641218</v>
+      </c>
+      <c r="P113" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.35845290137796304</v>
+      </c>
+    </row>
+    <row r="114" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L114" s="406">
+        <f t="shared" si="8"/>
+        <v>99</v>
+      </c>
+      <c r="M114" s="406">
+        <f t="shared" si="9"/>
+        <v>6.0650000000000057</v>
+      </c>
+      <c r="N114" s="406">
+        <f t="shared" si="5"/>
+        <v>1.8125831990348991</v>
+      </c>
+      <c r="O114" s="406">
+        <f t="shared" si="6"/>
+        <v>-0.43291662126222519</v>
+      </c>
+      <c r="P114" s="406">
+        <f t="shared" si="7"/>
+        <v>-0.22171475463619375</v>
+      </c>
+    </row>
+    <row r="115" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L115" s="406">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="M115" s="406">
+        <f t="shared" si="9"/>
+        <v>6.1910000000000061</v>
+      </c>
+      <c r="N115" s="406">
+        <f t="shared" si="5"/>
+        <v>1.966103658492073</v>
+      </c>
+      <c r="O115" s="406">
+        <f t="shared" si="6"/>
+        <v>-0.18410959102645097</v>
+      </c>
+      <c r="P115" s="406">
+        <f t="shared" si="7"/>
+        <v>-9.2447332172630389E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="12:16" x14ac:dyDescent="0.3">
+      <c r="L116" s="406">
+        <f t="shared" si="8"/>
+        <v>101</v>
+      </c>
+      <c r="M116" s="406">
+        <f t="shared" si="9"/>
+        <v>6.3170000000000064</v>
+      </c>
+      <c r="N116" s="406">
+        <f t="shared" si="5"/>
+        <v>1.9954280091854995</v>
+      </c>
+      <c r="O116" s="406">
+        <f t="shared" si="6"/>
+        <v>6.7616498094034305E-2</v>
+      </c>
+      <c r="P116" s="406">
+        <f t="shared" si="7"/>
+        <v>3.3827587001537422E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -32139,6 +37312,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -32162,15 +37336,15 @@
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="364" t="s">
+      <c r="B2" s="404" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="364"/>
-      <c r="D2" s="364"/>
+      <c r="C2" s="404"/>
+      <c r="D2" s="404"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:4" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="365" t="s">
+      <c r="C4" s="405" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="64" t="s">
@@ -32178,31 +37352,31 @@
       </c>
     </row>
     <row r="5" spans="2:4" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="365"/>
+      <c r="C5" s="405"/>
       <c r="D5" s="65" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="365"/>
+      <c r="C6" s="405"/>
       <c r="D6" s="66" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="365"/>
+      <c r="C7" s="405"/>
       <c r="D7" s="65" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="365"/>
+      <c r="C8" s="405"/>
       <c r="D8" s="66" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="365"/>
+      <c r="C9" s="405"/>
       <c r="D9" s="67" t="s">
         <v>37</v>
       </c>
@@ -32211,7 +37385,7 @@
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="365" t="s">
+      <c r="C11" s="405" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="68" t="s">
@@ -32219,20 +37393,20 @@
       </c>
     </row>
     <row r="12" spans="2:4" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="365"/>
+      <c r="C12" s="405"/>
       <c r="D12" s="65" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="365"/>
+      <c r="C13" s="405"/>
       <c r="D13" s="71" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="365" t="s">
+      <c r="C15" s="405" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="64" t="s">
@@ -32240,19 +37414,19 @@
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="365"/>
+      <c r="C16" s="405"/>
       <c r="D16" s="65" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="365"/>
+      <c r="C17" s="405"/>
       <c r="D17" s="70" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18" s="365"/>
+      <c r="C18" s="405"/>
       <c r="D18" s="69" t="s">
         <v>33</v>
       </c>
